--- a/SmartPlannerApp/ExcelFiles/Path To Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path To Graduation 2.xlsx
@@ -675,7 +675,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>

--- a/SmartPlannerApp/ExcelFiles/Path To Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path To Graduation 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="17460" yWindow="3480" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -675,7 +675,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -806,7 +806,7 @@
     <row r="5" ht="15.75" customHeight="1" s="27">
       <c r="A5" s="22" t="inlineStr">
         <is>
-          <t>CPSC 3165</t>
+          <t>DSCI 3111</t>
         </is>
       </c>
       <c r="B5" s="5" t="n">
@@ -840,11 +840,11 @@
     <row r="6" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A6" s="22" t="inlineStr">
         <is>
-          <t>CPSC 4000</t>
+          <t>CPSC 3121</t>
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="23" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
     <row r="7" ht="15.75" customHeight="1" s="27" thickTop="1">
       <c r="A7" s="22" t="inlineStr">
         <is>
-          <t>CPSC 3121</t>
+          <t>CPSC 3165</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
@@ -1036,11 +1036,11 @@
     <row r="13" ht="15.75" customHeight="1" s="27">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>DSCI 3111</t>
+          <t>CPSC 4000</t>
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" s="14" t="n"/>
       <c r="D13" s="5" t="n"/>
